--- a/biology/Botanique/Réserve_spéciale_d'Anjozorobe/Réserve_spéciale_d'Anjozorobe.xlsx
+++ b/biology/Botanique/Réserve_spéciale_d'Anjozorobe/Réserve_spéciale_d'Anjozorobe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_d%27Anjozorobe</t>
+          <t>Réserve_spéciale_d'Anjozorobe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve spéciale d'Anjaozorobe est une aire protégée à Madagascar. Cette forêt abrite de nombreuses espèces rares et endémiques, mais elle subit un déclin rapide principalement causé par les incendies. Dans le but de résoudre ce problème, une ONG[Laquelle ?]et une entreprise ont lancé un projet visant à former les paysans à l'apiculture, leur offrant ainsi un revenu stable et les dissuadant de détruire la forêt pour leur survie. Cependant, ce projet apicole est menacé par la disparition rapide des arbres mellifères, essentiels pour les abeilles[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve spéciale d'Anjaozorobe est une aire protégée à Madagascar. Cette forêt abrite de nombreuses espèces rares et endémiques, mais elle subit un déclin rapide principalement causé par les incendies. Dans le but de résoudre ce problème, une ONG[Laquelle ?]et une entreprise ont lancé un projet visant à former les paysans à l'apiculture, leur offrant ainsi un revenu stable et les dissuadant de détruire la forêt pour leur survie. Cependant, ce projet apicole est menacé par la disparition rapide des arbres mellifères, essentiels pour les abeilles.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_sp%C3%A9ciale_d%27Anjozorobe</t>
+          <t>Réserve_spéciale_d'Anjozorobe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le couloir forestier d’Anjozorobe – Angavo se situe entre les forêts humides de l’Est et la formation humide du haut plateau de Madagascar. Ce corridor se trouve entre le bassin versant de Mangoro et celui du Betsiboka[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le couloir forestier d’Anjozorobe – Angavo se situe entre les forêts humides de l’Est et la formation humide du haut plateau de Madagascar. Ce corridor se trouve entre le bassin versant de Mangoro et celui du Betsiboka.
 </t>
         </is>
       </c>
